--- a/exchange/input/Прайс_CТ_распродажа.xlsx
+++ b/exchange/input/Прайс_CТ_распродажа.xlsx
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
-  <si>
-    <t>Прайс-лист клиентский на 2 мая 2023 г.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+  <si>
+    <t>Прайс-лист клиентский на 15 июня 2023 г.</t>
   </si>
   <si>
     <t>Ценовая группа</t>
@@ -88,36 +88,6 @@
     <t>LT COMMERCIAL</t>
   </si>
   <si>
-    <t>ARMA/T LED 28 BL D60 3000K CRI90</t>
-  </si>
-  <si>
-    <t>1102300800</t>
-  </si>
-  <si>
-    <t>ARMA/T LED 28 BL D60 BREAD</t>
-  </si>
-  <si>
-    <t>1102300780</t>
-  </si>
-  <si>
-    <t>ARMA/T LED 28 WH D45 MEAT</t>
-  </si>
-  <si>
-    <t>1102300370</t>
-  </si>
-  <si>
-    <t>ARMA/T LED 28 WH D60 3000K CRI90</t>
-  </si>
-  <si>
-    <t>1102300790</t>
-  </si>
-  <si>
-    <t>ARMA/T LED 28 WH D60 FISH</t>
-  </si>
-  <si>
-    <t>1102300770</t>
-  </si>
-  <si>
     <t>ARMA/T LED 35 SL D30 4000K</t>
   </si>
   <si>
@@ -565,18 +535,6 @@
     <t>2010000190</t>
   </si>
   <si>
-    <t>OKKO 18 WH 4000K (with driver)</t>
-  </si>
-  <si>
-    <t>1235001130</t>
-  </si>
-  <si>
-    <t>OKKO 26 WH 4000K (with driver)</t>
-  </si>
-  <si>
-    <t>1235001140</t>
-  </si>
-  <si>
     <t>OKKO 38 WH 3000K (with driver)</t>
   </si>
   <si>
@@ -589,42 +547,12 @@
     <t>1235002030</t>
   </si>
   <si>
-    <t>OKKO IP54/IP20 18 WH 3000K (with driver)</t>
-  </si>
-  <si>
-    <t>1258000230</t>
-  </si>
-  <si>
     <t>OKKO LED 14 3500K IK</t>
   </si>
   <si>
     <t>1235001510</t>
   </si>
   <si>
-    <t>OKKO P 18 WH 4000K</t>
-  </si>
-  <si>
-    <t>1235000320</t>
-  </si>
-  <si>
-    <t>OKKO P 26 BL 3000K</t>
-  </si>
-  <si>
-    <t>1235000430</t>
-  </si>
-  <si>
-    <t>OKKO P 26 BL 4000K</t>
-  </si>
-  <si>
-    <t>1235000540</t>
-  </si>
-  <si>
-    <t>OKKO P 26 WH 4000K</t>
-  </si>
-  <si>
-    <t>1235000330</t>
-  </si>
-  <si>
     <t>OKKO P 38 BL 3000K</t>
   </si>
   <si>
@@ -637,78 +565,24 @@
     <t>1235002000</t>
   </si>
   <si>
-    <t>OKKO P 38 BL 4000K</t>
-  </si>
-  <si>
-    <t>1235000550</t>
-  </si>
-  <si>
     <t>OKKO P 38 WH 3000K</t>
   </si>
   <si>
     <t>1235000250</t>
   </si>
   <si>
-    <t>OKKO P 53 WH 4000K</t>
-  </si>
-  <si>
-    <t>1235000350</t>
-  </si>
-  <si>
-    <t>OKKO S 26 BL 4000K</t>
-  </si>
-  <si>
-    <t>1235000940</t>
-  </si>
-  <si>
-    <t>OKKO S 26 WH 3000K</t>
-  </si>
-  <si>
-    <t>1235000640</t>
-  </si>
-  <si>
-    <t>OKKO S 26 WH 4000K</t>
-  </si>
-  <si>
-    <t>1235000740</t>
-  </si>
-  <si>
     <t>OKKO S 38 BL 3000K</t>
   </si>
   <si>
     <t>1235000850</t>
   </si>
   <si>
-    <t>OKKO S 38 BL 4000K</t>
-  </si>
-  <si>
-    <t>1235000950</t>
-  </si>
-  <si>
     <t>OKKO S 38 WH 3000K</t>
   </si>
   <si>
     <t>1235000650</t>
   </si>
   <si>
-    <t>OKKO S 53 WH 4000K</t>
-  </si>
-  <si>
-    <t>1235000760</t>
-  </si>
-  <si>
-    <t>OKKO SQ 13 WH 4000K (with driver)</t>
-  </si>
-  <si>
-    <t>1235001440</t>
-  </si>
-  <si>
-    <t>OKKO SQ 18 WH 4000K (with driver)</t>
-  </si>
-  <si>
-    <t>1235001430</t>
-  </si>
-  <si>
     <t>PIANO C 12 WH 3000K (with driver)</t>
   </si>
   <si>
@@ -751,6 +625,12 @@
     <t>1507000620</t>
   </si>
   <si>
+    <t>QUO IP65/IP20 13 WH D90 4000K (big body)</t>
+  </si>
+  <si>
+    <t>1507001340</t>
+  </si>
+  <si>
     <t>SPLAY 09 WH DWW 3000K (with driver)</t>
   </si>
   <si>
@@ -802,253 +682,259 @@
     <t>1593000420</t>
   </si>
   <si>
+    <t>Контргайка латунная M50 BMBL-X5BN</t>
+  </si>
+  <si>
+    <t>4101000200</t>
+  </si>
+  <si>
+    <t>Контргайка нерж. M25 BMBL-X2X</t>
+  </si>
+  <si>
+    <t>4327001170</t>
+  </si>
+  <si>
+    <t>LT INDUSTRY</t>
+  </si>
+  <si>
+    <t>ACORN LED 30 D150 5000K with tempered glass 12 VAC</t>
+  </si>
+  <si>
+    <t>1490000450</t>
+  </si>
+  <si>
+    <t>ACORN LED 40 D150 3000K with tempered glass</t>
+  </si>
+  <si>
+    <t>1490000290</t>
+  </si>
+  <si>
+    <t>HBA 250 IP65 SET</t>
+  </si>
+  <si>
+    <t>1311000090</t>
+  </si>
+  <si>
+    <t>LODESTAR ECO LED 150 D90 4000K G2</t>
+  </si>
+  <si>
+    <t>1449000360</t>
+  </si>
+  <si>
+    <t>Matt tempered glass for HB LED</t>
+  </si>
+  <si>
+    <t>2224000130</t>
+  </si>
+  <si>
+    <t>SLICK STANDARD 1200 3000K /E/</t>
+  </si>
+  <si>
+    <t>1997046020</t>
+  </si>
+  <si>
+    <t>SLICK.PRS ECO LED 30 5000K (OPCB)</t>
+  </si>
+  <si>
+    <t>1631002900</t>
+  </si>
+  <si>
+    <t>Решетка HBA/HBX</t>
+  </si>
+  <si>
+    <t>2311000120</t>
+  </si>
+  <si>
+    <t>LT MEDICAL</t>
+  </si>
+  <si>
+    <t>OBN LITE2 130</t>
+  </si>
+  <si>
+    <t>1774000060</t>
+  </si>
+  <si>
+    <t>UVC lamp LEDVANCE TIBERA 15Wt</t>
+  </si>
+  <si>
+    <t>3995004930</t>
+  </si>
+  <si>
+    <t>UVC lamp LEDVANCE TIBERA 30Wt</t>
+  </si>
+  <si>
+    <t>3995004940</t>
+  </si>
+  <si>
+    <t>LT OUTDOOR</t>
+  </si>
+  <si>
+    <t>GORIZONT LED 105 W TROSS 3000K</t>
+  </si>
+  <si>
+    <t>1679000150</t>
+  </si>
+  <si>
+    <t>UM Sport 2000H R4/10° (without control gear)</t>
+  </si>
+  <si>
+    <t>1367001590</t>
+  </si>
+  <si>
+    <t>UMC 1000H Type 1 Grey with HR SET</t>
+  </si>
+  <si>
+    <t>1359000020</t>
+  </si>
+  <si>
+    <t>UMC 1000H Type 2 Grey SET</t>
+  </si>
+  <si>
+    <t>1359000710</t>
+  </si>
+  <si>
+    <t>UMC 1000H Type 2 Grey with HR SET</t>
+  </si>
+  <si>
+    <t>1359000060</t>
+  </si>
+  <si>
+    <t>Бокс выносной с ПРА/2000/380В/серый</t>
+  </si>
+  <si>
+    <t>5355001680</t>
+  </si>
+  <si>
+    <t>LT SOLUTIONS</t>
+  </si>
+  <si>
+    <t>Датчик движения инфракрасный IS775</t>
+  </si>
+  <si>
+    <t>4911004190</t>
+  </si>
+  <si>
+    <t>LT SYSTEMS/INDUSTRY</t>
+  </si>
+  <si>
+    <t>ACORN LED 20 D150 6000K with tempered glass</t>
+  </si>
+  <si>
+    <t>1490000750</t>
+  </si>
+  <si>
+    <t>ARCTIC.OPL ECO LED 1500 TH 4000K (OPCB)</t>
+  </si>
+  <si>
+    <t>1088001470</t>
+  </si>
+  <si>
+    <t>ARCTIC.OPL ECO LED 1500 TH EM 4000K STABLE</t>
+  </si>
+  <si>
+    <t>1088000820</t>
+  </si>
+  <si>
+    <t>Area LED 140 SW 5000K (OPCB)</t>
+  </si>
+  <si>
+    <t>1054000770</t>
+  </si>
+  <si>
+    <t>FORWARD 300W A30 840 WH SB C13604</t>
+  </si>
+  <si>
+    <t>1864004440</t>
+  </si>
+  <si>
+    <t>HB LED 1x150 D80 4000K G2.5</t>
+  </si>
+  <si>
+    <t>1224005260</t>
+  </si>
+  <si>
+    <t>HELEN.OPL LED 20 4000K</t>
+  </si>
+  <si>
+    <t>1496000100</t>
+  </si>
+  <si>
+    <t>HELEN.OPL LED 40 4000K</t>
+  </si>
+  <si>
+    <t>1496000110</t>
+  </si>
+  <si>
+    <t>HELEN.OPL LED 60 4000K</t>
+  </si>
+  <si>
+    <t>1496000120</t>
+  </si>
+  <si>
+    <t>LODESTAR ECO LED 150 D60 HFD 4000K WHITE</t>
+  </si>
+  <si>
+    <t>1449000190</t>
+  </si>
+  <si>
+    <t>ORBITA LED 150 D60 5000K (O120)</t>
+  </si>
+  <si>
+    <t>1343000080</t>
+  </si>
+  <si>
+    <t>ORBITA LED 150 D60 5000K (O150)</t>
+  </si>
+  <si>
+    <t>1343000090</t>
+  </si>
+  <si>
+    <t>LT SYSTEMS/OUTDOOR</t>
+  </si>
+  <si>
+    <t>BOLLARD LED 30 3000K H1190 black</t>
+  </si>
+  <si>
+    <t>1714000060</t>
+  </si>
+  <si>
+    <t>НВА Ex</t>
+  </si>
+  <si>
+    <t>Ввод кабельный взрывозащищенный М25х1,5 DSAC2MBNS</t>
+  </si>
+  <si>
+    <t>2327010240</t>
+  </si>
+  <si>
+    <t>Ввод кабельный взрывозащищенный М32х1,5 NAC3MBNS</t>
+  </si>
+  <si>
+    <t>2327009680</t>
+  </si>
+  <si>
+    <t>Заглушка взрывозащищенная М32х1,5 LT-B-TS3MBN</t>
+  </si>
+  <si>
+    <t>4327001470</t>
+  </si>
+  <si>
+    <t>Кольцо заземления BMET M20 BA (NI)</t>
+  </si>
+  <si>
+    <t>4327001080</t>
+  </si>
+  <si>
+    <t>Кольцо заземления BMET M25 BA (NI)</t>
+  </si>
+  <si>
+    <t>4327000650</t>
+  </si>
+  <si>
     <t>Кольцо заземления BMET M32 BA (NI)</t>
   </si>
   <si>
     <t>4327001090</t>
-  </si>
-  <si>
-    <t>Контргайка латунная M50 BMBL-X5BN</t>
-  </si>
-  <si>
-    <t>4101000200</t>
-  </si>
-  <si>
-    <t>Контргайка нерж. M25 BMBL-X2X</t>
-  </si>
-  <si>
-    <t>4327001170</t>
-  </si>
-  <si>
-    <t>LT INDUSTRY</t>
-  </si>
-  <si>
-    <t>ACORN LED 30 D150 5000K with tempered glass 12 VAC</t>
-  </si>
-  <si>
-    <t>1490000450</t>
-  </si>
-  <si>
-    <t>ACORN LED 40 D150 3000K with tempered glass</t>
-  </si>
-  <si>
-    <t>1490000290</t>
-  </si>
-  <si>
-    <t>HBA 250 IP65 SET</t>
-  </si>
-  <si>
-    <t>1311000090</t>
-  </si>
-  <si>
-    <t>LODESTAR ECO LED 150 D90 4000K G2</t>
-  </si>
-  <si>
-    <t>1449000360</t>
-  </si>
-  <si>
-    <t>Matt tempered glass for HB LED</t>
-  </si>
-  <si>
-    <t>2224000130</t>
-  </si>
-  <si>
-    <t>SLICK STANDARD 1200 3000K /E/</t>
-  </si>
-  <si>
-    <t>1997046020</t>
-  </si>
-  <si>
-    <t>SLICK.PRS ECO LED 30 5000K (OPCB)</t>
-  </si>
-  <si>
-    <t>1631002900</t>
-  </si>
-  <si>
-    <t>Решетка HBA/HBX</t>
-  </si>
-  <si>
-    <t>2311000120</t>
-  </si>
-  <si>
-    <t>LT MEDICAL</t>
-  </si>
-  <si>
-    <t>OBN LITE2 130</t>
-  </si>
-  <si>
-    <t>1774000060</t>
-  </si>
-  <si>
-    <t>UVC lamp LEDVANCE TIBERA 15Wt</t>
-  </si>
-  <si>
-    <t>3995004930</t>
-  </si>
-  <si>
-    <t>UVC lamp LEDVANCE TIBERA 30Wt</t>
-  </si>
-  <si>
-    <t>3995004940</t>
-  </si>
-  <si>
-    <t>LT OUTDOOR</t>
-  </si>
-  <si>
-    <t>GORIZONT LED 105 W TROSS 3000K</t>
-  </si>
-  <si>
-    <t>1679000150</t>
-  </si>
-  <si>
-    <t>UM Sport 2000H R4/10° (without control gear)</t>
-  </si>
-  <si>
-    <t>1367001590</t>
-  </si>
-  <si>
-    <t>UMC 1000H Type 1 Grey with HR SET</t>
-  </si>
-  <si>
-    <t>1359000020</t>
-  </si>
-  <si>
-    <t>UMC 1000H Type 2 Grey SET</t>
-  </si>
-  <si>
-    <t>1359000710</t>
-  </si>
-  <si>
-    <t>UMC 1000H Type 2 Grey with HR SET</t>
-  </si>
-  <si>
-    <t>1359000060</t>
-  </si>
-  <si>
-    <t>Бокс выносной с ПРА/2000/380В/серый</t>
-  </si>
-  <si>
-    <t>5355001680</t>
-  </si>
-  <si>
-    <t>LT SOLUTIONS</t>
-  </si>
-  <si>
-    <t>Датчик движения инфракрасный IS775</t>
-  </si>
-  <si>
-    <t>4911004190</t>
-  </si>
-  <si>
-    <t>LT SYSTEMS/INDUSTRY</t>
-  </si>
-  <si>
-    <t>ACORN LED 20 D150 6000K with tempered glass</t>
-  </si>
-  <si>
-    <t>1490000750</t>
-  </si>
-  <si>
-    <t>ARCTIC.OPL ECO LED 1500 TH 4000K (OPCB)</t>
-  </si>
-  <si>
-    <t>1088001470</t>
-  </si>
-  <si>
-    <t>ARCTIC.OPL ECO LED 1500 TH EM 4000K STABLE</t>
-  </si>
-  <si>
-    <t>1088000820</t>
-  </si>
-  <si>
-    <t>Area LED 140 SW 5000K (OPCB)</t>
-  </si>
-  <si>
-    <t>1054000770</t>
-  </si>
-  <si>
-    <t>FORWARD 300W A30 840 WH SB C13604</t>
-  </si>
-  <si>
-    <t>1864004440</t>
-  </si>
-  <si>
-    <t>HB LED 1x150 D80 4000K G2.5</t>
-  </si>
-  <si>
-    <t>1224005260</t>
-  </si>
-  <si>
-    <t>LODESTAR ECO LED 150 D60 HFD 4000K WHITE</t>
-  </si>
-  <si>
-    <t>1449000190</t>
-  </si>
-  <si>
-    <t>ORBITA LED 150 D60 5000K (O120)</t>
-  </si>
-  <si>
-    <t>1343000080</t>
-  </si>
-  <si>
-    <t>ORBITA LED 150 D60 5000K (O150)</t>
-  </si>
-  <si>
-    <t>1343000090</t>
-  </si>
-  <si>
-    <t>LT SYSTEMS/OUTDOOR</t>
-  </si>
-  <si>
-    <t>BOLLARD LED 30 3000K H1190 black</t>
-  </si>
-  <si>
-    <t>1714000060</t>
-  </si>
-  <si>
-    <t>НВА Ex</t>
-  </si>
-  <si>
-    <t>Ввод кабельный взрывозащищенный М20х1,5 NA1SMBNS</t>
-  </si>
-  <si>
-    <t>2327009350</t>
-  </si>
-  <si>
-    <t>Ввод кабельный взрывозащищенный М20х1,5/G1/2 NAP1M1GBNS</t>
-  </si>
-  <si>
-    <t>2327009860</t>
-  </si>
-  <si>
-    <t>Ввод кабельный взрывозащищенный М25х1,5 DSAC2MBNS</t>
-  </si>
-  <si>
-    <t>2327010240</t>
-  </si>
-  <si>
-    <t>Ввод кабельный взрывозащищенный М32х1,5 NAC3MBNS</t>
-  </si>
-  <si>
-    <t>2327009680</t>
-  </si>
-  <si>
-    <t>Заглушка взрывозащищенная М32х1,5 LT-B-TS3MBN</t>
-  </si>
-  <si>
-    <t>4327001470</t>
-  </si>
-  <si>
-    <t>Кольцо заземления BMET M20 BA (NI)</t>
-  </si>
-  <si>
-    <t>4327001080</t>
-  </si>
-  <si>
-    <t>Кольцо заземления BMET M25 BA (NI)</t>
-  </si>
-  <si>
-    <t>4327000650</t>
   </si>
   <si>
     <t>Контргайка пластиковая М25х1,5 BML-X2</t>
@@ -1214,7 +1100,7 @@
     </from>
     <to>
       <col>6</col>
-      <colOff>142875</colOff>
+      <colOff>66675</colOff>
       <row>5</row>
       <rowOff>161925</rowOff>
     </to>
@@ -1227,16 +1113,14 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="-704" r="-704" t="1754" b="1754"/>
         <a:stretch>
-          <a:fillRect/>
+          <a:fillRect r="-462" b="1754"/>
         </a:stretch>
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1253,24 +1137,24 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="P186"/>
+  <dimension ref="P167"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="4.16796875" style="1" customWidth="true"/>
-    <col min="2" max="2" width="4.16796875" style="1" customWidth="true"/>
-    <col min="3" max="3" width="2" style="1" customWidth="true"/>
-    <col min="4" max="4" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="4.66796875" style="1" customWidth="true"/>
+    <col min="2" max="2" width="4.66796875" style="1" customWidth="true"/>
+    <col min="3" max="3" width="1.16796875" style="1" customWidth="true"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="true"/>
     <col min="5" max="5" width="9.5" style="1" customWidth="true"/>
-    <col min="6" max="6" width="4.16796875" style="1" customWidth="true"/>
-    <col min="7" max="7" width="4.16796875" style="1" customWidth="true"/>
-    <col min="8" max="8" width="4.16796875" style="1" customWidth="true"/>
-    <col min="9" max="9" width="4.16796875" style="1" customWidth="true"/>
-    <col min="10" max="10" width="4.16796875" style="1" customWidth="true"/>
-    <col min="11" max="11" width="4.16796875" style="1" customWidth="true"/>
-    <col min="12" max="12" width="9.33203125" style="1" customWidth="true"/>
+    <col min="6" max="6" width="4.66796875" style="1" customWidth="true"/>
+    <col min="7" max="7" width="4.83203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="4.66796875" style="1" customWidth="true"/>
+    <col min="9" max="9" width="4.66796875" style="1" customWidth="true"/>
+    <col min="10" max="10" width="4.83203125" style="1" customWidth="true"/>
+    <col min="11" max="11" width="4.66796875" style="1" customWidth="true"/>
+    <col min="12" max="12" width="5.5" style="1" customWidth="true"/>
     <col min="13" max="13" width="14" style="1" customWidth="true"/>
     <col min="14" max="14" width="14" style="1" customWidth="true"/>
     <col min="15" max="15" width="7.16796875" style="1" customWidth="true"/>
@@ -1609,7 +1493,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="1">
@@ -1637,7 +1521,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="8" t="n">
-        <v>2500</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="1">
@@ -1664,8 +1548,8 @@
       <c r="O22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="8" t="n">
-        <v>2500</v>
+      <c r="P22" s="9" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="1">
@@ -1692,8 +1576,8 @@
       <c r="O23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="8" t="n">
-        <v>2500</v>
+      <c r="P23" s="9" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true" outlineLevel="1">
@@ -1720,8 +1604,8 @@
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="8" t="n">
-        <v>2500</v>
+      <c r="P24" s="9" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true" outlineLevel="1">
@@ -1748,8 +1632,8 @@
       <c r="O25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P25" s="8" t="n">
-        <v>3000</v>
+      <c r="P25" s="9" t="n">
+        <v>558</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="1">
@@ -1776,8 +1660,8 @@
       <c r="O26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P26" s="8" t="n">
-        <v>1590</v>
+      <c r="P26" s="9" t="n">
+        <v>578</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="1">
@@ -1805,7 +1689,7 @@
         <v>11</v>
       </c>
       <c r="P27" s="9" t="n">
-        <v>110</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="1">
@@ -1833,7 +1717,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="9" t="n">
-        <v>118</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="1">
@@ -1861,7 +1745,7 @@
         <v>11</v>
       </c>
       <c r="P29" s="9" t="n">
-        <v>149</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true" outlineLevel="1">
@@ -1889,7 +1773,7 @@
         <v>11</v>
       </c>
       <c r="P30" s="9" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true" outlineLevel="1">
@@ -1917,7 +1801,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="9" t="n">
-        <v>578</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="1">
@@ -1945,7 +1829,7 @@
         <v>11</v>
       </c>
       <c r="P32" s="9" t="n">
-        <v>471</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="1">
@@ -1972,8 +1856,8 @@
       <c r="O33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P33" s="9" t="n">
-        <v>748</v>
+      <c r="P33" s="8" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true" outlineLevel="1">
@@ -2000,8 +1884,8 @@
       <c r="O34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P34" s="9" t="n">
-        <v>556</v>
+      <c r="P34" s="8" t="n">
+        <v>6875</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true" outlineLevel="1">
@@ -2029,7 +1913,7 @@
         <v>11</v>
       </c>
       <c r="P35" s="9" t="n">
-        <v>562</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true" outlineLevel="1">
@@ -2056,8 +1940,8 @@
       <c r="O36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P36" s="9" t="n">
-        <v>554</v>
+      <c r="P36" s="8" t="n">
+        <v>1390</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true" outlineLevel="1">
@@ -2084,8 +1968,8 @@
       <c r="O37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P37" s="9" t="n">
-        <v>605</v>
+      <c r="P37" s="8" t="n">
+        <v>1390</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true" outlineLevel="1">
@@ -2113,7 +1997,7 @@
         <v>11</v>
       </c>
       <c r="P38" s="8" t="n">
-        <v>1900</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="1">
@@ -2141,7 +2025,7 @@
         <v>11</v>
       </c>
       <c r="P39" s="8" t="n">
-        <v>6875</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true" outlineLevel="1">
@@ -2169,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="P40" s="9" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true" outlineLevel="1">
@@ -2196,8 +2080,8 @@
       <c r="O41" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P41" s="8" t="n">
-        <v>1390</v>
+      <c r="P41" s="9" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true" outlineLevel="1">
@@ -2224,8 +2108,8 @@
       <c r="O42" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P42" s="8" t="n">
-        <v>1390</v>
+      <c r="P42" s="9" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true" outlineLevel="1">
@@ -2252,8 +2136,8 @@
       <c r="O43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P43" s="8" t="n">
-        <v>1390</v>
+      <c r="P43" s="9" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true" outlineLevel="1">
@@ -2280,8 +2164,8 @@
       <c r="O44" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P44" s="8" t="n">
-        <v>1390</v>
+      <c r="P44" s="9" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="1">
@@ -2309,7 +2193,7 @@
         <v>11</v>
       </c>
       <c r="P45" s="9" t="n">
-        <v>19</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true" outlineLevel="1">
@@ -2336,8 +2220,8 @@
       <c r="O46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P46" s="9" t="n">
-        <v>41</v>
+      <c r="P46" s="8" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true" outlineLevel="1">
@@ -2364,8 +2248,8 @@
       <c r="O47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P47" s="9" t="n">
-        <v>319</v>
+      <c r="P47" s="8" t="n">
+        <v>3683</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true" outlineLevel="1">
@@ -2392,8 +2276,8 @@
       <c r="O48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P48" s="9" t="n">
-        <v>116</v>
+      <c r="P48" s="8" t="n">
+        <v>3750</v>
       </c>
     </row>
     <row r="49" ht="11" customHeight="true" outlineLevel="1">
@@ -2420,8 +2304,8 @@
       <c r="O49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P49" s="9" t="n">
-        <v>134</v>
+      <c r="P49" s="8" t="n">
+        <v>2100</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true" outlineLevel="1">
@@ -2448,8 +2332,8 @@
       <c r="O50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P50" s="9" t="n">
-        <v>657</v>
+      <c r="P50" s="8" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true" outlineLevel="1">
@@ -2505,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="P52" s="8" t="n">
-        <v>3683</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true" outlineLevel="1">
@@ -2533,7 +2417,7 @@
         <v>11</v>
       </c>
       <c r="P53" s="8" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true" outlineLevel="1">
@@ -2561,7 +2445,7 @@
         <v>11</v>
       </c>
       <c r="P54" s="8" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true" outlineLevel="1">
@@ -2589,7 +2473,7 @@
         <v>11</v>
       </c>
       <c r="P55" s="8" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true" outlineLevel="1">
@@ -2617,7 +2501,7 @@
         <v>11</v>
       </c>
       <c r="P56" s="8" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true" outlineLevel="1">
@@ -2645,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="P57" s="8" t="n">
-        <v>3625</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="58" ht="11" customHeight="true" outlineLevel="1">
@@ -2673,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="P58" s="8" t="n">
-        <v>4500</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="59" ht="11" customHeight="true" outlineLevel="1">
@@ -2701,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="P59" s="8" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true" outlineLevel="1">
@@ -2728,8 +2612,8 @@
       <c r="O60" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P60" s="8" t="n">
-        <v>3500</v>
+      <c r="P60" s="9" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="11" customHeight="true" outlineLevel="1">
@@ -2756,8 +2640,8 @@
       <c r="O61" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P61" s="8" t="n">
-        <v>3200</v>
+      <c r="P61" s="9" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="62" ht="11" customHeight="true" outlineLevel="1">
@@ -2784,8 +2668,8 @@
       <c r="O62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P62" s="8" t="n">
-        <v>1900</v>
+      <c r="P62" s="9" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true" outlineLevel="1">
@@ -2813,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="P63" s="8" t="n">
-        <v>1900</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="64" ht="11" customHeight="true" outlineLevel="1">
@@ -2841,7 +2725,7 @@
         <v>11</v>
       </c>
       <c r="P64" s="8" t="n">
-        <v>3500</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true" outlineLevel="1">
@@ -2868,8 +2752,8 @@
       <c r="O65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P65" s="9" t="n">
-        <v>40</v>
+      <c r="P65" s="8" t="n">
+        <v>1085</v>
       </c>
     </row>
     <row r="66" ht="11" customHeight="true" outlineLevel="1">
@@ -2896,8 +2780,8 @@
       <c r="O66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P66" s="9" t="n">
-        <v>106</v>
+      <c r="P66" s="8" t="n">
+        <v>1085</v>
       </c>
     </row>
     <row r="67" ht="11" customHeight="true" outlineLevel="1">
@@ -2924,8 +2808,8 @@
       <c r="O67" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P67" s="9" t="n">
-        <v>400</v>
+      <c r="P67" s="8" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true" outlineLevel="1">
@@ -2953,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="P68" s="8" t="n">
-        <v>1465</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true" outlineLevel="1">
@@ -2981,7 +2865,7 @@
         <v>11</v>
       </c>
       <c r="P69" s="8" t="n">
-        <v>1093</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true" outlineLevel="1">
@@ -3008,8 +2892,8 @@
       <c r="O70" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P70" s="8" t="n">
-        <v>1085</v>
+      <c r="P70" s="9" t="n">
+        <v>599</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true" outlineLevel="1">
@@ -3036,8 +2920,8 @@
       <c r="O71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P71" s="8" t="n">
-        <v>1085</v>
+      <c r="P71" s="9" t="n">
+        <v>557</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true" outlineLevel="1">
@@ -3065,7 +2949,7 @@
         <v>11</v>
       </c>
       <c r="P72" s="8" t="n">
-        <v>3200</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true" outlineLevel="1">
@@ -3093,7 +2977,7 @@
         <v>11</v>
       </c>
       <c r="P73" s="8" t="n">
-        <v>3370</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true" outlineLevel="1">
@@ -3121,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="P74" s="8" t="n">
-        <v>2630</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true" outlineLevel="1">
@@ -3148,8 +3032,8 @@
       <c r="O75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P75" s="9" t="n">
-        <v>605</v>
+      <c r="P75" s="8" t="n">
+        <v>1661</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true" outlineLevel="1">
@@ -3176,8 +3060,8 @@
       <c r="O76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P76" s="9" t="n">
-        <v>557</v>
+      <c r="P76" s="8" t="n">
+        <v>2320</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true" outlineLevel="1">
@@ -3205,7 +3089,7 @@
         <v>11</v>
       </c>
       <c r="P77" s="8" t="n">
-        <v>1166</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true" outlineLevel="1">
@@ -3232,8 +3116,8 @@
       <c r="O78" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P78" s="8" t="n">
-        <v>1115</v>
+      <c r="P78" s="9" t="n">
+        <v>901</v>
       </c>
     </row>
     <row r="79" ht="11" customHeight="true" outlineLevel="1">
@@ -3261,7 +3145,7 @@
         <v>11</v>
       </c>
       <c r="P79" s="8" t="n">
-        <v>1720</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true" outlineLevel="1">
@@ -3289,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="P80" s="8" t="n">
-        <v>1661</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="81" ht="11" customHeight="true" outlineLevel="1">
@@ -3317,40 +3201,32 @@
         <v>11</v>
       </c>
       <c r="P81" s="8" t="n">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A82" s="6" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true">
+      <c r="A82" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="6" t="e"/>
-      <c r="C82" s="6" t="e"/>
-      <c r="D82" s="6" t="e"/>
-      <c r="E82" s="6" t="e"/>
-      <c r="F82" s="6" t="e"/>
-      <c r="G82" s="6" t="e"/>
-      <c r="H82" s="6" t="e"/>
-      <c r="I82" s="6" t="e"/>
-      <c r="J82" s="6" t="e"/>
-      <c r="K82" s="6" t="e"/>
-      <c r="L82" s="6" t="e"/>
-      <c r="M82" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P82" s="8" t="n">
-        <v>2252</v>
-      </c>
+      <c r="B82" s="4" t="e"/>
+      <c r="C82" s="4" t="e"/>
+      <c r="D82" s="4" t="e"/>
+      <c r="E82" s="4" t="e"/>
+      <c r="F82" s="4" t="e"/>
+      <c r="G82" s="4" t="e"/>
+      <c r="H82" s="4" t="e"/>
+      <c r="I82" s="4" t="e"/>
+      <c r="J82" s="4" t="e"/>
+      <c r="K82" s="4" t="e"/>
+      <c r="L82" s="4" t="e"/>
+      <c r="M82" s="4" t="e"/>
+      <c r="N82" s="4" t="e"/>
+      <c r="O82" s="4" t="e"/>
+      <c r="P82" s="5" t="e"/>
     </row>
     <row r="83" ht="11" customHeight="true" outlineLevel="1">
       <c r="A83" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B83" s="6" t="e"/>
       <c r="C83" s="6" t="e"/>
@@ -3364,21 +3240,21 @@
       <c r="K83" s="6" t="e"/>
       <c r="L83" s="6" t="e"/>
       <c r="M83" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P83" s="9" t="n">
-        <v>901</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" ht="11" customHeight="true" outlineLevel="1">
       <c r="A84" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" s="6" t="e"/>
       <c r="C84" s="6" t="e"/>
@@ -3392,21 +3268,21 @@
       <c r="K84" s="6" t="e"/>
       <c r="L84" s="6" t="e"/>
       <c r="M84" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P84" s="8" t="n">
-        <v>1934</v>
+      <c r="P84" s="9" t="n">
+        <v>590</v>
       </c>
     </row>
     <row r="85" ht="11" customHeight="true" outlineLevel="1">
       <c r="A85" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="6" t="e"/>
       <c r="C85" s="6" t="e"/>
@@ -3420,21 +3296,21 @@
       <c r="K85" s="6" t="e"/>
       <c r="L85" s="6" t="e"/>
       <c r="M85" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P85" s="8" t="n">
-        <v>2857</v>
+      <c r="P85" s="9" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="86" ht="11" customHeight="true" outlineLevel="1">
       <c r="A86" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B86" s="6" t="e"/>
       <c r="C86" s="6" t="e"/>
@@ -3448,37 +3324,45 @@
       <c r="K86" s="6" t="e"/>
       <c r="L86" s="6" t="e"/>
       <c r="M86" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P86" s="9" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A87" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="N86" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P86" s="8" t="n">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true">
-      <c r="A87" s="4" t="s">
+      <c r="B87" s="6" t="e"/>
+      <c r="C87" s="6" t="e"/>
+      <c r="D87" s="6" t="e"/>
+      <c r="E87" s="6" t="e"/>
+      <c r="F87" s="6" t="e"/>
+      <c r="G87" s="6" t="e"/>
+      <c r="H87" s="6" t="e"/>
+      <c r="I87" s="6" t="e"/>
+      <c r="J87" s="6" t="e"/>
+      <c r="K87" s="6" t="e"/>
+      <c r="L87" s="6" t="e"/>
+      <c r="M87" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="4" t="e"/>
-      <c r="C87" s="4" t="e"/>
-      <c r="D87" s="4" t="e"/>
-      <c r="E87" s="4" t="e"/>
-      <c r="F87" s="4" t="e"/>
-      <c r="G87" s="4" t="e"/>
-      <c r="H87" s="4" t="e"/>
-      <c r="I87" s="4" t="e"/>
-      <c r="J87" s="4" t="e"/>
-      <c r="K87" s="4" t="e"/>
-      <c r="L87" s="4" t="e"/>
-      <c r="M87" s="4" t="e"/>
-      <c r="N87" s="4" t="e"/>
-      <c r="O87" s="4" t="e"/>
-      <c r="P87" s="5" t="e"/>
+      <c r="N87" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P87" s="8" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="88" ht="11" customHeight="true" outlineLevel="1">
       <c r="A88" s="6" t="s">
@@ -3504,8 +3388,8 @@
       <c r="O88" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P88" s="9" t="n">
-        <v>700</v>
+      <c r="P88" s="8" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="89" ht="11" customHeight="true" outlineLevel="1">
@@ -3532,8 +3416,8 @@
       <c r="O89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P89" s="9" t="n">
-        <v>590</v>
+      <c r="P89" s="8" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true" outlineLevel="1">
@@ -3560,8 +3444,8 @@
       <c r="O90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P90" s="9" t="n">
-        <v>600</v>
+      <c r="P90" s="8" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true" outlineLevel="1">
@@ -3588,8 +3472,8 @@
       <c r="O91" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P91" s="9" t="n">
-        <v>490</v>
+      <c r="P91" s="8" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true" outlineLevel="1">
@@ -3645,7 +3529,7 @@
         <v>11</v>
       </c>
       <c r="P93" s="8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true" outlineLevel="1">
@@ -3673,7 +3557,7 @@
         <v>11</v>
       </c>
       <c r="P94" s="8" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true" outlineLevel="1">
@@ -3701,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="P95" s="8" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true" outlineLevel="1">
@@ -3729,7 +3613,7 @@
         <v>11</v>
       </c>
       <c r="P96" s="8" t="n">
-        <v>3000</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true" outlineLevel="1">
@@ -3757,7 +3641,7 @@
         <v>11</v>
       </c>
       <c r="P97" s="8" t="n">
-        <v>1000</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true" outlineLevel="1">
@@ -3785,7 +3669,7 @@
         <v>11</v>
       </c>
       <c r="P98" s="8" t="n">
-        <v>2625</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="99" ht="11" customHeight="true" outlineLevel="1">
@@ -3813,7 +3697,7 @@
         <v>11</v>
       </c>
       <c r="P99" s="8" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="100" ht="11" customHeight="true" outlineLevel="1">
@@ -3841,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="P100" s="8" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="101" ht="11" customHeight="true" outlineLevel="1">
@@ -3868,8 +3752,8 @@
       <c r="O101" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P101" s="8" t="n">
-        <v>3000</v>
+      <c r="P101" s="9" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="102" ht="11" customHeight="true" outlineLevel="1">
@@ -3897,7 +3781,7 @@
         <v>11</v>
       </c>
       <c r="P102" s="8" t="n">
-        <v>4375</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="103" ht="11" customHeight="true" outlineLevel="1">
@@ -3924,8 +3808,8 @@
       <c r="O103" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P103" s="8" t="n">
-        <v>2500</v>
+      <c r="P103" s="9" t="n">
+        <v>490</v>
       </c>
     </row>
     <row r="104" ht="11" customHeight="true" outlineLevel="1">
@@ -3952,8 +3836,8 @@
       <c r="O104" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P104" s="8" t="n">
-        <v>6875</v>
+      <c r="P104" s="9" t="n">
+        <v>825</v>
       </c>
     </row>
     <row r="105" ht="11" customHeight="true" outlineLevel="1">
@@ -3981,7 +3865,7 @@
         <v>11</v>
       </c>
       <c r="P105" s="8" t="n">
-        <v>4875</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="106" ht="11" customHeight="true" outlineLevel="1">
@@ -4008,8 +3892,8 @@
       <c r="O106" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P106" s="8" t="n">
-        <v>4875</v>
+      <c r="P106" s="9" t="n">
+        <v>490</v>
       </c>
     </row>
     <row r="107" ht="11" customHeight="true" outlineLevel="1">
@@ -4037,7 +3921,7 @@
         <v>11</v>
       </c>
       <c r="P107" s="8" t="n">
-        <v>4875</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="108" ht="11" customHeight="true" outlineLevel="1">
@@ -4065,7 +3949,7 @@
         <v>11</v>
       </c>
       <c r="P108" s="8" t="n">
-        <v>5375</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="109" ht="11" customHeight="true" outlineLevel="1">
@@ -4092,8 +3976,8 @@
       <c r="O109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P109" s="8" t="n">
-        <v>3850</v>
+      <c r="P109" s="9" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="110" ht="11" customHeight="true" outlineLevel="1">
@@ -4120,41 +4004,33 @@
       <c r="O110" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P110" s="8" t="n">
-        <v>5375</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A111" s="6" t="s">
+      <c r="P110" s="9" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true">
+      <c r="A111" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B111" s="6" t="e"/>
-      <c r="C111" s="6" t="e"/>
-      <c r="D111" s="6" t="e"/>
-      <c r="E111" s="6" t="e"/>
-      <c r="F111" s="6" t="e"/>
-      <c r="G111" s="6" t="e"/>
-      <c r="H111" s="6" t="e"/>
-      <c r="I111" s="6" t="e"/>
-      <c r="J111" s="6" t="e"/>
-      <c r="K111" s="6" t="e"/>
-      <c r="L111" s="6" t="e"/>
-      <c r="M111" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="N111" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="O111" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P111" s="8" t="n">
-        <v>5375</v>
-      </c>
+      <c r="B111" s="4" t="e"/>
+      <c r="C111" s="4" t="e"/>
+      <c r="D111" s="4" t="e"/>
+      <c r="E111" s="4" t="e"/>
+      <c r="F111" s="4" t="e"/>
+      <c r="G111" s="4" t="e"/>
+      <c r="H111" s="4" t="e"/>
+      <c r="I111" s="4" t="e"/>
+      <c r="J111" s="4" t="e"/>
+      <c r="K111" s="4" t="e"/>
+      <c r="L111" s="4" t="e"/>
+      <c r="M111" s="4" t="e"/>
+      <c r="N111" s="4" t="e"/>
+      <c r="O111" s="4" t="e"/>
+      <c r="P111" s="5" t="e"/>
     </row>
     <row r="112" ht="11" customHeight="true" outlineLevel="1">
       <c r="A112" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B112" s="6" t="e"/>
       <c r="C112" s="6" t="e"/>
@@ -4168,21 +4044,21 @@
       <c r="K112" s="6" t="e"/>
       <c r="L112" s="6" t="e"/>
       <c r="M112" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O112" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P112" s="8" t="n">
-        <v>8000</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="113" ht="11" customHeight="true" outlineLevel="1">
       <c r="A113" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B113" s="6" t="e"/>
       <c r="C113" s="6" t="e"/>
@@ -4196,21 +4072,21 @@
       <c r="K113" s="6" t="e"/>
       <c r="L113" s="6" t="e"/>
       <c r="M113" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O113" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P113" s="8" t="n">
-        <v>4875</v>
+        <v>24762</v>
       </c>
     </row>
     <row r="114" ht="11" customHeight="true" outlineLevel="1">
       <c r="A114" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B114" s="6" t="e"/>
       <c r="C114" s="6" t="e"/>
@@ -4224,21 +4100,21 @@
       <c r="K114" s="6" t="e"/>
       <c r="L114" s="6" t="e"/>
       <c r="M114" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O114" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P114" s="8" t="n">
-        <v>4875</v>
+        <v>30338</v>
       </c>
     </row>
     <row r="115" ht="11" customHeight="true" outlineLevel="1">
       <c r="A115" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115" s="6" t="e"/>
       <c r="C115" s="6" t="e"/>
@@ -4252,21 +4128,21 @@
       <c r="K115" s="6" t="e"/>
       <c r="L115" s="6" t="e"/>
       <c r="M115" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O115" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P115" s="8" t="n">
-        <v>4875</v>
+        <v>11790</v>
       </c>
     </row>
     <row r="116" ht="11" customHeight="true" outlineLevel="1">
       <c r="A116" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B116" s="6" t="e"/>
       <c r="C116" s="6" t="e"/>
@@ -4280,21 +4156,21 @@
       <c r="K116" s="6" t="e"/>
       <c r="L116" s="6" t="e"/>
       <c r="M116" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O116" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P116" s="8" t="n">
-        <v>5375</v>
+        <v>8661</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true" outlineLevel="1">
       <c r="A117" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B117" s="6" t="e"/>
       <c r="C117" s="6" t="e"/>
@@ -4308,21 +4184,21 @@
       <c r="K117" s="6" t="e"/>
       <c r="L117" s="6" t="e"/>
       <c r="M117" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O117" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P117" s="8" t="n">
-        <v>5375</v>
+        <v>26018</v>
       </c>
     </row>
     <row r="118" ht="11" customHeight="true" outlineLevel="1">
       <c r="A118" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B118" s="6" t="e"/>
       <c r="C118" s="6" t="e"/>
@@ -4336,21 +4212,21 @@
       <c r="K118" s="6" t="e"/>
       <c r="L118" s="6" t="e"/>
       <c r="M118" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O118" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P118" s="8" t="n">
-        <v>5375</v>
+      <c r="P118" s="9" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="119" ht="11" customHeight="true" outlineLevel="1">
       <c r="A119" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B119" s="6" t="e"/>
       <c r="C119" s="6" t="e"/>
@@ -4364,49 +4240,41 @@
       <c r="K119" s="6" t="e"/>
       <c r="L119" s="6" t="e"/>
       <c r="M119" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="N119" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="O119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P119" s="9" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true">
+      <c r="A120" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="N119" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="O119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P119" s="8" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A120" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B120" s="6" t="e"/>
-      <c r="C120" s="6" t="e"/>
-      <c r="D120" s="6" t="e"/>
-      <c r="E120" s="6" t="e"/>
-      <c r="F120" s="6" t="e"/>
-      <c r="G120" s="6" t="e"/>
-      <c r="H120" s="6" t="e"/>
-      <c r="I120" s="6" t="e"/>
-      <c r="J120" s="6" t="e"/>
-      <c r="K120" s="6" t="e"/>
-      <c r="L120" s="6" t="e"/>
-      <c r="M120" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="N120" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P120" s="8" t="n">
-        <v>2300</v>
-      </c>
+      <c r="B120" s="4" t="e"/>
+      <c r="C120" s="4" t="e"/>
+      <c r="D120" s="4" t="e"/>
+      <c r="E120" s="4" t="e"/>
+      <c r="F120" s="4" t="e"/>
+      <c r="G120" s="4" t="e"/>
+      <c r="H120" s="4" t="e"/>
+      <c r="I120" s="4" t="e"/>
+      <c r="J120" s="4" t="e"/>
+      <c r="K120" s="4" t="e"/>
+      <c r="L120" s="4" t="e"/>
+      <c r="M120" s="4" t="e"/>
+      <c r="N120" s="4" t="e"/>
+      <c r="O120" s="4" t="e"/>
+      <c r="P120" s="5" t="e"/>
     </row>
     <row r="121" ht="11" customHeight="true" outlineLevel="1">
       <c r="A121" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B121" s="6" t="e"/>
       <c r="C121" s="6" t="e"/>
@@ -4420,21 +4288,21 @@
       <c r="K121" s="6" t="e"/>
       <c r="L121" s="6" t="e"/>
       <c r="M121" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O121" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P121" s="8" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="122" ht="11" customHeight="true" outlineLevel="1">
       <c r="A122" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B122" s="6" t="e"/>
       <c r="C122" s="6" t="e"/>
@@ -4448,21 +4316,21 @@
       <c r="K122" s="6" t="e"/>
       <c r="L122" s="6" t="e"/>
       <c r="M122" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P122" s="9" t="n">
-        <v>900</v>
+      <c r="P122" s="8" t="n">
+        <v>3520</v>
       </c>
     </row>
     <row r="123" ht="11" customHeight="true" outlineLevel="1">
       <c r="A123" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B123" s="6" t="e"/>
       <c r="C123" s="6" t="e"/>
@@ -4476,21 +4344,21 @@
       <c r="K123" s="6" t="e"/>
       <c r="L123" s="6" t="e"/>
       <c r="M123" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O123" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P123" s="8" t="n">
-        <v>1375</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true" outlineLevel="1">
       <c r="A124" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B124" s="6" t="e"/>
       <c r="C124" s="6" t="e"/>
@@ -4504,21 +4372,21 @@
       <c r="K124" s="6" t="e"/>
       <c r="L124" s="6" t="e"/>
       <c r="M124" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O124" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P124" s="9" t="n">
-        <v>490</v>
+      <c r="P124" s="8" t="n">
+        <v>10200</v>
       </c>
     </row>
     <row r="125" ht="11" customHeight="true" outlineLevel="1">
       <c r="A125" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B125" s="6" t="e"/>
       <c r="C125" s="6" t="e"/>
@@ -4532,21 +4400,21 @@
       <c r="K125" s="6" t="e"/>
       <c r="L125" s="6" t="e"/>
       <c r="M125" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N125" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O125" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P125" s="9" t="n">
-        <v>825</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" ht="11" customHeight="true" outlineLevel="1">
       <c r="A126" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B126" s="6" t="e"/>
       <c r="C126" s="6" t="e"/>
@@ -4560,21 +4428,21 @@
       <c r="K126" s="6" t="e"/>
       <c r="L126" s="6" t="e"/>
       <c r="M126" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O126" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P126" s="8" t="n">
-        <v>1100</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="127" ht="11" customHeight="true" outlineLevel="1">
       <c r="A127" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B127" s="6" t="e"/>
       <c r="C127" s="6" t="e"/>
@@ -4588,21 +4456,21 @@
       <c r="K127" s="6" t="e"/>
       <c r="L127" s="6" t="e"/>
       <c r="M127" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P127" s="9" t="n">
-        <v>490</v>
+      <c r="P127" s="8" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="128" ht="11" customHeight="true" outlineLevel="1">
       <c r="A128" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B128" s="6" t="e"/>
       <c r="C128" s="6" t="e"/>
@@ -4616,49 +4484,41 @@
       <c r="K128" s="6" t="e"/>
       <c r="L128" s="6" t="e"/>
       <c r="M128" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O128" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P128" s="8" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A129" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B129" s="6" t="e"/>
-      <c r="C129" s="6" t="e"/>
-      <c r="D129" s="6" t="e"/>
-      <c r="E129" s="6" t="e"/>
-      <c r="F129" s="6" t="e"/>
-      <c r="G129" s="6" t="e"/>
-      <c r="H129" s="6" t="e"/>
-      <c r="I129" s="6" t="e"/>
-      <c r="J129" s="6" t="e"/>
-      <c r="K129" s="6" t="e"/>
-      <c r="L129" s="6" t="e"/>
-      <c r="M129" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="N129" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="O129" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P129" s="9" t="n">
-        <v>500</v>
-      </c>
+      <c r="P128" s="9" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true">
+      <c r="A129" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B129" s="4" t="e"/>
+      <c r="C129" s="4" t="e"/>
+      <c r="D129" s="4" t="e"/>
+      <c r="E129" s="4" t="e"/>
+      <c r="F129" s="4" t="e"/>
+      <c r="G129" s="4" t="e"/>
+      <c r="H129" s="4" t="e"/>
+      <c r="I129" s="4" t="e"/>
+      <c r="J129" s="4" t="e"/>
+      <c r="K129" s="4" t="e"/>
+      <c r="L129" s="4" t="e"/>
+      <c r="M129" s="4" t="e"/>
+      <c r="N129" s="4" t="e"/>
+      <c r="O129" s="4" t="e"/>
+      <c r="P129" s="5" t="e"/>
     </row>
     <row r="130" ht="11" customHeight="true" outlineLevel="1">
       <c r="A130" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B130" s="6" t="e"/>
       <c r="C130" s="6" t="e"/>
@@ -4672,41 +4532,49 @@
       <c r="K130" s="6" t="e"/>
       <c r="L130" s="6" t="e"/>
       <c r="M130" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O130" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P130" s="9" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="131" ht="11" customHeight="true">
-      <c r="A131" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B131" s="4" t="e"/>
-      <c r="C131" s="4" t="e"/>
-      <c r="D131" s="4" t="e"/>
-      <c r="E131" s="4" t="e"/>
-      <c r="F131" s="4" t="e"/>
-      <c r="G131" s="4" t="e"/>
-      <c r="H131" s="4" t="e"/>
-      <c r="I131" s="4" t="e"/>
-      <c r="J131" s="4" t="e"/>
-      <c r="K131" s="4" t="e"/>
-      <c r="L131" s="4" t="e"/>
-      <c r="M131" s="4" t="e"/>
-      <c r="N131" s="4" t="e"/>
-      <c r="O131" s="4" t="e"/>
-      <c r="P131" s="5" t="e"/>
+      <c r="P130" s="8" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="131" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A131" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B131" s="6" t="e"/>
+      <c r="C131" s="6" t="e"/>
+      <c r="D131" s="6" t="e"/>
+      <c r="E131" s="6" t="e"/>
+      <c r="F131" s="6" t="e"/>
+      <c r="G131" s="6" t="e"/>
+      <c r="H131" s="6" t="e"/>
+      <c r="I131" s="6" t="e"/>
+      <c r="J131" s="6" t="e"/>
+      <c r="K131" s="6" t="e"/>
+      <c r="L131" s="6" t="e"/>
+      <c r="M131" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="N131" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P131" s="9" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="132" ht="11" customHeight="true" outlineLevel="1">
       <c r="A132" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B132" s="6" t="e"/>
       <c r="C132" s="6" t="e"/>
@@ -4720,49 +4588,41 @@
       <c r="K132" s="6" t="e"/>
       <c r="L132" s="6" t="e"/>
       <c r="M132" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O132" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P132" s="8" t="n">
-        <v>44070</v>
-      </c>
-    </row>
-    <row r="133" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A133" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B133" s="6" t="e"/>
-      <c r="C133" s="6" t="e"/>
-      <c r="D133" s="6" t="e"/>
-      <c r="E133" s="6" t="e"/>
-      <c r="F133" s="6" t="e"/>
-      <c r="G133" s="6" t="e"/>
-      <c r="H133" s="6" t="e"/>
-      <c r="I133" s="6" t="e"/>
-      <c r="J133" s="6" t="e"/>
-      <c r="K133" s="6" t="e"/>
-      <c r="L133" s="6" t="e"/>
-      <c r="M133" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="N133" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="O133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P133" s="8" t="n">
-        <v>24762</v>
-      </c>
+      <c r="P132" s="9" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true">
+      <c r="A133" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" s="4" t="e"/>
+      <c r="C133" s="4" t="e"/>
+      <c r="D133" s="4" t="e"/>
+      <c r="E133" s="4" t="e"/>
+      <c r="F133" s="4" t="e"/>
+      <c r="G133" s="4" t="e"/>
+      <c r="H133" s="4" t="e"/>
+      <c r="I133" s="4" t="e"/>
+      <c r="J133" s="4" t="e"/>
+      <c r="K133" s="4" t="e"/>
+      <c r="L133" s="4" t="e"/>
+      <c r="M133" s="4" t="e"/>
+      <c r="N133" s="4" t="e"/>
+      <c r="O133" s="4" t="e"/>
+      <c r="P133" s="5" t="e"/>
     </row>
     <row r="134" ht="11" customHeight="true" outlineLevel="1">
       <c r="A134" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B134" s="6" t="e"/>
       <c r="C134" s="6" t="e"/>
@@ -4776,21 +4636,21 @@
       <c r="K134" s="6" t="e"/>
       <c r="L134" s="6" t="e"/>
       <c r="M134" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N134" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O134" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P134" s="8" t="n">
-        <v>30338</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="135" ht="11" customHeight="true" outlineLevel="1">
       <c r="A135" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B135" s="6" t="e"/>
       <c r="C135" s="6" t="e"/>
@@ -4804,21 +4664,21 @@
       <c r="K135" s="6" t="e"/>
       <c r="L135" s="6" t="e"/>
       <c r="M135" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O135" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P135" s="8" t="n">
-        <v>11790</v>
+        <v>24800</v>
       </c>
     </row>
     <row r="136" ht="11" customHeight="true" outlineLevel="1">
       <c r="A136" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B136" s="6" t="e"/>
       <c r="C136" s="6" t="e"/>
@@ -4832,21 +4692,21 @@
       <c r="K136" s="6" t="e"/>
       <c r="L136" s="6" t="e"/>
       <c r="M136" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N136" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O136" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P136" s="8" t="n">
-        <v>5572</v>
+        <v>49000</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true" outlineLevel="1">
       <c r="A137" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B137" s="6" t="e"/>
       <c r="C137" s="6" t="e"/>
@@ -4860,21 +4720,21 @@
       <c r="K137" s="6" t="e"/>
       <c r="L137" s="6" t="e"/>
       <c r="M137" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N137" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O137" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P137" s="8" t="n">
-        <v>26018</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="138" ht="11" customHeight="true" outlineLevel="1">
       <c r="A138" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B138" s="6" t="e"/>
       <c r="C138" s="6" t="e"/>
@@ -4888,21 +4748,21 @@
       <c r="K138" s="6" t="e"/>
       <c r="L138" s="6" t="e"/>
       <c r="M138" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N138" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O138" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P138" s="9" t="n">
-        <v>41</v>
+      <c r="P138" s="8" t="n">
+        <v>49000</v>
       </c>
     </row>
     <row r="139" ht="11" customHeight="true" outlineLevel="1">
       <c r="A139" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B139" s="6" t="e"/>
       <c r="C139" s="6" t="e"/>
@@ -4916,97 +4776,89 @@
       <c r="K139" s="6" t="e"/>
       <c r="L139" s="6" t="e"/>
       <c r="M139" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="N139" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="O139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P139" s="8" t="n">
+        <v>11560</v>
+      </c>
+    </row>
+    <row r="140" ht="11" customHeight="true">
+      <c r="A140" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B140" s="4" t="e"/>
+      <c r="C140" s="4" t="e"/>
+      <c r="D140" s="4" t="e"/>
+      <c r="E140" s="4" t="e"/>
+      <c r="F140" s="4" t="e"/>
+      <c r="G140" s="4" t="e"/>
+      <c r="H140" s="4" t="e"/>
+      <c r="I140" s="4" t="e"/>
+      <c r="J140" s="4" t="e"/>
+      <c r="K140" s="4" t="e"/>
+      <c r="L140" s="4" t="e"/>
+      <c r="M140" s="4" t="e"/>
+      <c r="N140" s="4" t="e"/>
+      <c r="O140" s="4" t="e"/>
+      <c r="P140" s="5" t="e"/>
+    </row>
+    <row r="141" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A141" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" s="6" t="e"/>
+      <c r="C141" s="6" t="e"/>
+      <c r="D141" s="6" t="e"/>
+      <c r="E141" s="6" t="e"/>
+      <c r="F141" s="6" t="e"/>
+      <c r="G141" s="6" t="e"/>
+      <c r="H141" s="6" t="e"/>
+      <c r="I141" s="6" t="e"/>
+      <c r="J141" s="6" t="e"/>
+      <c r="K141" s="6" t="e"/>
+      <c r="L141" s="6" t="e"/>
+      <c r="M141" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="N139" s="7" t="s">
+      <c r="N141" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="O139" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P139" s="9" t="n">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="140" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A140" s="6" t="s">
+      <c r="O141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P141" s="9" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="142" ht="11" customHeight="true">
+      <c r="A142" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B140" s="6" t="e"/>
-      <c r="C140" s="6" t="e"/>
-      <c r="D140" s="6" t="e"/>
-      <c r="E140" s="6" t="e"/>
-      <c r="F140" s="6" t="e"/>
-      <c r="G140" s="6" t="e"/>
-      <c r="H140" s="6" t="e"/>
-      <c r="I140" s="6" t="e"/>
-      <c r="J140" s="6" t="e"/>
-      <c r="K140" s="6" t="e"/>
-      <c r="L140" s="6" t="e"/>
-      <c r="M140" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="N140" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="O140" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P140" s="9" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="141" ht="11" customHeight="true">
-      <c r="A141" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B141" s="4" t="e"/>
-      <c r="C141" s="4" t="e"/>
-      <c r="D141" s="4" t="e"/>
-      <c r="E141" s="4" t="e"/>
-      <c r="F141" s="4" t="e"/>
-      <c r="G141" s="4" t="e"/>
-      <c r="H141" s="4" t="e"/>
-      <c r="I141" s="4" t="e"/>
-      <c r="J141" s="4" t="e"/>
-      <c r="K141" s="4" t="e"/>
-      <c r="L141" s="4" t="e"/>
-      <c r="M141" s="4" t="e"/>
-      <c r="N141" s="4" t="e"/>
-      <c r="O141" s="4" t="e"/>
-      <c r="P141" s="5" t="e"/>
-    </row>
-    <row r="142" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A142" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="B142" s="6" t="e"/>
-      <c r="C142" s="6" t="e"/>
-      <c r="D142" s="6" t="e"/>
-      <c r="E142" s="6" t="e"/>
-      <c r="F142" s="6" t="e"/>
-      <c r="G142" s="6" t="e"/>
-      <c r="H142" s="6" t="e"/>
-      <c r="I142" s="6" t="e"/>
-      <c r="J142" s="6" t="e"/>
-      <c r="K142" s="6" t="e"/>
-      <c r="L142" s="6" t="e"/>
-      <c r="M142" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="N142" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="O142" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P142" s="8" t="n">
-        <v>2700</v>
-      </c>
+      <c r="B142" s="4" t="e"/>
+      <c r="C142" s="4" t="e"/>
+      <c r="D142" s="4" t="e"/>
+      <c r="E142" s="4" t="e"/>
+      <c r="F142" s="4" t="e"/>
+      <c r="G142" s="4" t="e"/>
+      <c r="H142" s="4" t="e"/>
+      <c r="I142" s="4" t="e"/>
+      <c r="J142" s="4" t="e"/>
+      <c r="K142" s="4" t="e"/>
+      <c r="L142" s="4" t="e"/>
+      <c r="M142" s="4" t="e"/>
+      <c r="N142" s="4" t="e"/>
+      <c r="O142" s="4" t="e"/>
+      <c r="P142" s="5" t="e"/>
     </row>
     <row r="143" ht="11" customHeight="true" outlineLevel="1">
       <c r="A143" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B143" s="6" t="e"/>
       <c r="C143" s="6" t="e"/>
@@ -5020,21 +4872,21 @@
       <c r="K143" s="6" t="e"/>
       <c r="L143" s="6" t="e"/>
       <c r="M143" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N143" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O143" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P143" s="8" t="n">
-        <v>3520</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="144" ht="11" customHeight="true" outlineLevel="1">
       <c r="A144" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B144" s="6" t="e"/>
       <c r="C144" s="6" t="e"/>
@@ -5048,21 +4900,21 @@
       <c r="K144" s="6" t="e"/>
       <c r="L144" s="6" t="e"/>
       <c r="M144" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O144" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P144" s="8" t="n">
-        <v>7500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="145" ht="11" customHeight="true" outlineLevel="1">
       <c r="A145" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B145" s="6" t="e"/>
       <c r="C145" s="6" t="e"/>
@@ -5076,21 +4928,21 @@
       <c r="K145" s="6" t="e"/>
       <c r="L145" s="6" t="e"/>
       <c r="M145" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N145" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O145" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P145" s="8" t="n">
-        <v>10200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="146" ht="11" customHeight="true" outlineLevel="1">
       <c r="A146" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B146" s="6" t="e"/>
       <c r="C146" s="6" t="e"/>
@@ -5104,21 +4956,21 @@
       <c r="K146" s="6" t="e"/>
       <c r="L146" s="6" t="e"/>
       <c r="M146" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N146" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P146" s="9" t="n">
-        <v>305</v>
+      <c r="P146" s="8" t="n">
+        <v>32400</v>
       </c>
     </row>
     <row r="147" ht="11" customHeight="true" outlineLevel="1">
       <c r="A147" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B147" s="6" t="e"/>
       <c r="C147" s="6" t="e"/>
@@ -5132,21 +4984,21 @@
       <c r="K147" s="6" t="e"/>
       <c r="L147" s="6" t="e"/>
       <c r="M147" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N147" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O147" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P147" s="8" t="n">
-        <v>2349</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="148" ht="11" customHeight="true" outlineLevel="1">
       <c r="A148" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B148" s="6" t="e"/>
       <c r="C148" s="6" t="e"/>
@@ -5160,21 +5012,21 @@
       <c r="K148" s="6" t="e"/>
       <c r="L148" s="6" t="e"/>
       <c r="M148" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N148" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O148" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P148" s="8" t="n">
-        <v>3200</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="149" ht="11" customHeight="true" outlineLevel="1">
       <c r="A149" s="6" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B149" s="6" t="e"/>
       <c r="C149" s="6" t="e"/>
@@ -5188,41 +5040,49 @@
       <c r="K149" s="6" t="e"/>
       <c r="L149" s="6" t="e"/>
       <c r="M149" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N149" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O149" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P149" s="9" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="150" ht="11" customHeight="true">
-      <c r="A150" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B150" s="4" t="e"/>
-      <c r="C150" s="4" t="e"/>
-      <c r="D150" s="4" t="e"/>
-      <c r="E150" s="4" t="e"/>
-      <c r="F150" s="4" t="e"/>
-      <c r="G150" s="4" t="e"/>
-      <c r="H150" s="4" t="e"/>
-      <c r="I150" s="4" t="e"/>
-      <c r="J150" s="4" t="e"/>
-      <c r="K150" s="4" t="e"/>
-      <c r="L150" s="4" t="e"/>
-      <c r="M150" s="4" t="e"/>
-      <c r="N150" s="4" t="e"/>
-      <c r="O150" s="4" t="e"/>
-      <c r="P150" s="5" t="e"/>
+      <c r="P149" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="150" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A150" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" s="6" t="e"/>
+      <c r="C150" s="6" t="e"/>
+      <c r="D150" s="6" t="e"/>
+      <c r="E150" s="6" t="e"/>
+      <c r="F150" s="6" t="e"/>
+      <c r="G150" s="6" t="e"/>
+      <c r="H150" s="6" t="e"/>
+      <c r="I150" s="6" t="e"/>
+      <c r="J150" s="6" t="e"/>
+      <c r="K150" s="6" t="e"/>
+      <c r="L150" s="6" t="e"/>
+      <c r="M150" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="N150" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="O150" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P150" s="8" t="n">
+        <v>5700</v>
+      </c>
     </row>
     <row r="151" ht="11" customHeight="true" outlineLevel="1">
       <c r="A151" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B151" s="6" t="e"/>
       <c r="C151" s="6" t="e"/>
@@ -5236,21 +5096,21 @@
       <c r="K151" s="6" t="e"/>
       <c r="L151" s="6" t="e"/>
       <c r="M151" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O151" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P151" s="8" t="n">
-        <v>1400</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="152" ht="11" customHeight="true" outlineLevel="1">
       <c r="A152" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B152" s="6" t="e"/>
       <c r="C152" s="6" t="e"/>
@@ -5264,21 +5124,21 @@
       <c r="K152" s="6" t="e"/>
       <c r="L152" s="6" t="e"/>
       <c r="M152" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N152" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O152" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P152" s="9" t="n">
-        <v>250</v>
+      <c r="P152" s="8" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="153" ht="11" customHeight="true" outlineLevel="1">
       <c r="A153" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B153" s="6" t="e"/>
       <c r="C153" s="6" t="e"/>
@@ -5292,69 +5152,69 @@
       <c r="K153" s="6" t="e"/>
       <c r="L153" s="6" t="e"/>
       <c r="M153" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="N153" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="O153" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P153" s="8" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="154" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A154" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B154" s="6" t="e"/>
+      <c r="C154" s="6" t="e"/>
+      <c r="D154" s="6" t="e"/>
+      <c r="E154" s="6" t="e"/>
+      <c r="F154" s="6" t="e"/>
+      <c r="G154" s="6" t="e"/>
+      <c r="H154" s="6" t="e"/>
+      <c r="I154" s="6" t="e"/>
+      <c r="J154" s="6" t="e"/>
+      <c r="K154" s="6" t="e"/>
+      <c r="L154" s="6" t="e"/>
+      <c r="M154" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="N154" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="O154" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P154" s="8" t="n">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="155" ht="11" customHeight="true">
+      <c r="A155" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="N153" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="O153" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P153" s="9" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="154" ht="11" customHeight="true">
-      <c r="A154" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B154" s="4" t="e"/>
-      <c r="C154" s="4" t="e"/>
-      <c r="D154" s="4" t="e"/>
-      <c r="E154" s="4" t="e"/>
-      <c r="F154" s="4" t="e"/>
-      <c r="G154" s="4" t="e"/>
-      <c r="H154" s="4" t="e"/>
-      <c r="I154" s="4" t="e"/>
-      <c r="J154" s="4" t="e"/>
-      <c r="K154" s="4" t="e"/>
-      <c r="L154" s="4" t="e"/>
-      <c r="M154" s="4" t="e"/>
-      <c r="N154" s="4" t="e"/>
-      <c r="O154" s="4" t="e"/>
-      <c r="P154" s="5" t="e"/>
-    </row>
-    <row r="155" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A155" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B155" s="6" t="e"/>
-      <c r="C155" s="6" t="e"/>
-      <c r="D155" s="6" t="e"/>
-      <c r="E155" s="6" t="e"/>
-      <c r="F155" s="6" t="e"/>
-      <c r="G155" s="6" t="e"/>
-      <c r="H155" s="6" t="e"/>
-      <c r="I155" s="6" t="e"/>
-      <c r="J155" s="6" t="e"/>
-      <c r="K155" s="6" t="e"/>
-      <c r="L155" s="6" t="e"/>
-      <c r="M155" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="N155" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="O155" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P155" s="8" t="n">
-        <v>20000</v>
-      </c>
+      <c r="B155" s="4" t="e"/>
+      <c r="C155" s="4" t="e"/>
+      <c r="D155" s="4" t="e"/>
+      <c r="E155" s="4" t="e"/>
+      <c r="F155" s="4" t="e"/>
+      <c r="G155" s="4" t="e"/>
+      <c r="H155" s="4" t="e"/>
+      <c r="I155" s="4" t="e"/>
+      <c r="J155" s="4" t="e"/>
+      <c r="K155" s="4" t="e"/>
+      <c r="L155" s="4" t="e"/>
+      <c r="M155" s="4" t="e"/>
+      <c r="N155" s="4" t="e"/>
+      <c r="O155" s="4" t="e"/>
+      <c r="P155" s="5" t="e"/>
     </row>
     <row r="156" ht="11" customHeight="true" outlineLevel="1">
       <c r="A156" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B156" s="6" t="e"/>
       <c r="C156" s="6" t="e"/>
@@ -5368,49 +5228,41 @@
       <c r="K156" s="6" t="e"/>
       <c r="L156" s="6" t="e"/>
       <c r="M156" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N156" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O156" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P156" s="8" t="n">
-        <v>24800</v>
-      </c>
-    </row>
-    <row r="157" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A157" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B157" s="6" t="e"/>
-      <c r="C157" s="6" t="e"/>
-      <c r="D157" s="6" t="e"/>
-      <c r="E157" s="6" t="e"/>
-      <c r="F157" s="6" t="e"/>
-      <c r="G157" s="6" t="e"/>
-      <c r="H157" s="6" t="e"/>
-      <c r="I157" s="6" t="e"/>
-      <c r="J157" s="6" t="e"/>
-      <c r="K157" s="6" t="e"/>
-      <c r="L157" s="6" t="e"/>
-      <c r="M157" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="N157" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="O157" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P157" s="8" t="n">
-        <v>49000</v>
-      </c>
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="157" ht="11" customHeight="true">
+      <c r="A157" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B157" s="4" t="e"/>
+      <c r="C157" s="4" t="e"/>
+      <c r="D157" s="4" t="e"/>
+      <c r="E157" s="4" t="e"/>
+      <c r="F157" s="4" t="e"/>
+      <c r="G157" s="4" t="e"/>
+      <c r="H157" s="4" t="e"/>
+      <c r="I157" s="4" t="e"/>
+      <c r="J157" s="4" t="e"/>
+      <c r="K157" s="4" t="e"/>
+      <c r="L157" s="4" t="e"/>
+      <c r="M157" s="4" t="e"/>
+      <c r="N157" s="4" t="e"/>
+      <c r="O157" s="4" t="e"/>
+      <c r="P157" s="5" t="e"/>
     </row>
     <row r="158" ht="11" customHeight="true" outlineLevel="1">
       <c r="A158" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B158" s="6" t="e"/>
       <c r="C158" s="6" t="e"/>
@@ -5424,21 +5276,21 @@
       <c r="K158" s="6" t="e"/>
       <c r="L158" s="6" t="e"/>
       <c r="M158" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N158" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O158" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P158" s="8" t="n">
-        <v>33000</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="159" ht="11" customHeight="true" outlineLevel="1">
       <c r="A159" s="6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B159" s="6" t="e"/>
       <c r="C159" s="6" t="e"/>
@@ -5452,21 +5304,21 @@
       <c r="K159" s="6" t="e"/>
       <c r="L159" s="6" t="e"/>
       <c r="M159" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N159" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O159" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P159" s="8" t="n">
-        <v>49000</v>
+      <c r="P159" s="9" t="n">
+        <v>603</v>
       </c>
     </row>
     <row r="160" ht="11" customHeight="true" outlineLevel="1">
       <c r="A160" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B160" s="6" t="e"/>
       <c r="C160" s="6" t="e"/>
@@ -5480,41 +5332,49 @@
       <c r="K160" s="6" t="e"/>
       <c r="L160" s="6" t="e"/>
       <c r="M160" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N160" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O160" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P160" s="8" t="n">
-        <v>11560</v>
-      </c>
-    </row>
-    <row r="161" ht="11" customHeight="true">
-      <c r="A161" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B161" s="4" t="e"/>
-      <c r="C161" s="4" t="e"/>
-      <c r="D161" s="4" t="e"/>
-      <c r="E161" s="4" t="e"/>
-      <c r="F161" s="4" t="e"/>
-      <c r="G161" s="4" t="e"/>
-      <c r="H161" s="4" t="e"/>
-      <c r="I161" s="4" t="e"/>
-      <c r="J161" s="4" t="e"/>
-      <c r="K161" s="4" t="e"/>
-      <c r="L161" s="4" t="e"/>
-      <c r="M161" s="4" t="e"/>
-      <c r="N161" s="4" t="e"/>
-      <c r="O161" s="4" t="e"/>
-      <c r="P161" s="5" t="e"/>
+      <c r="P160" s="9" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="161" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A161" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B161" s="6" t="e"/>
+      <c r="C161" s="6" t="e"/>
+      <c r="D161" s="6" t="e"/>
+      <c r="E161" s="6" t="e"/>
+      <c r="F161" s="6" t="e"/>
+      <c r="G161" s="6" t="e"/>
+      <c r="H161" s="6" t="e"/>
+      <c r="I161" s="6" t="e"/>
+      <c r="J161" s="6" t="e"/>
+      <c r="K161" s="6" t="e"/>
+      <c r="L161" s="6" t="e"/>
+      <c r="M161" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="N161" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="O161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P161" s="9" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="162" ht="11" customHeight="true" outlineLevel="1">
       <c r="A162" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B162" s="6" t="e"/>
       <c r="C162" s="6" t="e"/>
@@ -5528,41 +5388,49 @@
       <c r="K162" s="6" t="e"/>
       <c r="L162" s="6" t="e"/>
       <c r="M162" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N162" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O162" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P162" s="9" t="n">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="163" ht="11" customHeight="true">
-      <c r="A163" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B163" s="4" t="e"/>
-      <c r="C163" s="4" t="e"/>
-      <c r="D163" s="4" t="e"/>
-      <c r="E163" s="4" t="e"/>
-      <c r="F163" s="4" t="e"/>
-      <c r="G163" s="4" t="e"/>
-      <c r="H163" s="4" t="e"/>
-      <c r="I163" s="4" t="e"/>
-      <c r="J163" s="4" t="e"/>
-      <c r="K163" s="4" t="e"/>
-      <c r="L163" s="4" t="e"/>
-      <c r="M163" s="4" t="e"/>
-      <c r="N163" s="4" t="e"/>
-      <c r="O163" s="4" t="e"/>
-      <c r="P163" s="5" t="e"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A163" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B163" s="6" t="e"/>
+      <c r="C163" s="6" t="e"/>
+      <c r="D163" s="6" t="e"/>
+      <c r="E163" s="6" t="e"/>
+      <c r="F163" s="6" t="e"/>
+      <c r="G163" s="6" t="e"/>
+      <c r="H163" s="6" t="e"/>
+      <c r="I163" s="6" t="e"/>
+      <c r="J163" s="6" t="e"/>
+      <c r="K163" s="6" t="e"/>
+      <c r="L163" s="6" t="e"/>
+      <c r="M163" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="N163" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="O163" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P163" s="9" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="164" ht="11" customHeight="true" outlineLevel="1">
       <c r="A164" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B164" s="6" t="e"/>
       <c r="C164" s="6" t="e"/>
@@ -5576,21 +5444,21 @@
       <c r="K164" s="6" t="e"/>
       <c r="L164" s="6" t="e"/>
       <c r="M164" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N164" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O164" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P164" s="8" t="n">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="165" ht="11" customHeight="true" outlineLevel="1">
+      <c r="P164" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" ht="22" customHeight="true" outlineLevel="1">
       <c r="A165" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B165" s="6" t="e"/>
       <c r="C165" s="6" t="e"/>
@@ -5604,21 +5472,21 @@
       <c r="K165" s="6" t="e"/>
       <c r="L165" s="6" t="e"/>
       <c r="M165" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N165" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O165" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P165" s="8" t="n">
-        <v>2500</v>
+      <c r="P165" s="9" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="166" ht="11" customHeight="true" outlineLevel="1">
       <c r="A166" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B166" s="6" t="e"/>
       <c r="C166" s="6" t="e"/>
@@ -5632,21 +5500,21 @@
       <c r="K166" s="6" t="e"/>
       <c r="L166" s="6" t="e"/>
       <c r="M166" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N166" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O166" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P166" s="8" t="n">
-        <v>3300</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="167" ht="11" customHeight="true" outlineLevel="1">
       <c r="A167" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B167" s="6" t="e"/>
       <c r="C167" s="6" t="e"/>
@@ -5660,536 +5528,20 @@
       <c r="K167" s="6" t="e"/>
       <c r="L167" s="6" t="e"/>
       <c r="M167" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N167" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O167" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P167" s="8" t="n">
-        <v>32400</v>
-      </c>
-    </row>
-    <row r="168" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A168" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B168" s="6" t="e"/>
-      <c r="C168" s="6" t="e"/>
-      <c r="D168" s="6" t="e"/>
-      <c r="E168" s="6" t="e"/>
-      <c r="F168" s="6" t="e"/>
-      <c r="G168" s="6" t="e"/>
-      <c r="H168" s="6" t="e"/>
-      <c r="I168" s="6" t="e"/>
-      <c r="J168" s="6" t="e"/>
-      <c r="K168" s="6" t="e"/>
-      <c r="L168" s="6" t="e"/>
-      <c r="M168" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="N168" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="O168" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P168" s="8" t="n">
-        <v>18200</v>
-      </c>
-    </row>
-    <row r="169" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A169" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B169" s="6" t="e"/>
-      <c r="C169" s="6" t="e"/>
-      <c r="D169" s="6" t="e"/>
-      <c r="E169" s="6" t="e"/>
-      <c r="F169" s="6" t="e"/>
-      <c r="G169" s="6" t="e"/>
-      <c r="H169" s="6" t="e"/>
-      <c r="I169" s="6" t="e"/>
-      <c r="J169" s="6" t="e"/>
-      <c r="K169" s="6" t="e"/>
-      <c r="L169" s="6" t="e"/>
-      <c r="M169" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="N169" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="O169" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P169" s="8" t="n">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="170" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A170" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B170" s="6" t="e"/>
-      <c r="C170" s="6" t="e"/>
-      <c r="D170" s="6" t="e"/>
-      <c r="E170" s="6" t="e"/>
-      <c r="F170" s="6" t="e"/>
-      <c r="G170" s="6" t="e"/>
-      <c r="H170" s="6" t="e"/>
-      <c r="I170" s="6" t="e"/>
-      <c r="J170" s="6" t="e"/>
-      <c r="K170" s="6" t="e"/>
-      <c r="L170" s="6" t="e"/>
-      <c r="M170" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="N170" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="O170" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P170" s="8" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="171" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A171" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B171" s="6" t="e"/>
-      <c r="C171" s="6" t="e"/>
-      <c r="D171" s="6" t="e"/>
-      <c r="E171" s="6" t="e"/>
-      <c r="F171" s="6" t="e"/>
-      <c r="G171" s="6" t="e"/>
-      <c r="H171" s="6" t="e"/>
-      <c r="I171" s="6" t="e"/>
-      <c r="J171" s="6" t="e"/>
-      <c r="K171" s="6" t="e"/>
-      <c r="L171" s="6" t="e"/>
-      <c r="M171" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="N171" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="O171" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P171" s="8" t="n">
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="172" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A172" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B172" s="6" t="e"/>
-      <c r="C172" s="6" t="e"/>
-      <c r="D172" s="6" t="e"/>
-      <c r="E172" s="6" t="e"/>
-      <c r="F172" s="6" t="e"/>
-      <c r="G172" s="6" t="e"/>
-      <c r="H172" s="6" t="e"/>
-      <c r="I172" s="6" t="e"/>
-      <c r="J172" s="6" t="e"/>
-      <c r="K172" s="6" t="e"/>
-      <c r="L172" s="6" t="e"/>
-      <c r="M172" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="N172" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="O172" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P172" s="8" t="n">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="173" ht="11" customHeight="true">
-      <c r="A173" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B173" s="4" t="e"/>
-      <c r="C173" s="4" t="e"/>
-      <c r="D173" s="4" t="e"/>
-      <c r="E173" s="4" t="e"/>
-      <c r="F173" s="4" t="e"/>
-      <c r="G173" s="4" t="e"/>
-      <c r="H173" s="4" t="e"/>
-      <c r="I173" s="4" t="e"/>
-      <c r="J173" s="4" t="e"/>
-      <c r="K173" s="4" t="e"/>
-      <c r="L173" s="4" t="e"/>
-      <c r="M173" s="4" t="e"/>
-      <c r="N173" s="4" t="e"/>
-      <c r="O173" s="4" t="e"/>
-      <c r="P173" s="5" t="e"/>
-    </row>
-    <row r="174" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A174" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B174" s="6" t="e"/>
-      <c r="C174" s="6" t="e"/>
-      <c r="D174" s="6" t="e"/>
-      <c r="E174" s="6" t="e"/>
-      <c r="F174" s="6" t="e"/>
-      <c r="G174" s="6" t="e"/>
-      <c r="H174" s="6" t="e"/>
-      <c r="I174" s="6" t="e"/>
-      <c r="J174" s="6" t="e"/>
-      <c r="K174" s="6" t="e"/>
-      <c r="L174" s="6" t="e"/>
-      <c r="M174" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="N174" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="O174" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P174" s="8" t="n">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="175" ht="11" customHeight="true">
-      <c r="A175" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B175" s="4" t="e"/>
-      <c r="C175" s="4" t="e"/>
-      <c r="D175" s="4" t="e"/>
-      <c r="E175" s="4" t="e"/>
-      <c r="F175" s="4" t="e"/>
-      <c r="G175" s="4" t="e"/>
-      <c r="H175" s="4" t="e"/>
-      <c r="I175" s="4" t="e"/>
-      <c r="J175" s="4" t="e"/>
-      <c r="K175" s="4" t="e"/>
-      <c r="L175" s="4" t="e"/>
-      <c r="M175" s="4" t="e"/>
-      <c r="N175" s="4" t="e"/>
-      <c r="O175" s="4" t="e"/>
-      <c r="P175" s="5" t="e"/>
-    </row>
-    <row r="176" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A176" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B176" s="6" t="e"/>
-      <c r="C176" s="6" t="e"/>
-      <c r="D176" s="6" t="e"/>
-      <c r="E176" s="6" t="e"/>
-      <c r="F176" s="6" t="e"/>
-      <c r="G176" s="6" t="e"/>
-      <c r="H176" s="6" t="e"/>
-      <c r="I176" s="6" t="e"/>
-      <c r="J176" s="6" t="e"/>
-      <c r="K176" s="6" t="e"/>
-      <c r="L176" s="6" t="e"/>
-      <c r="M176" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="N176" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="O176" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P176" s="9" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="177" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A177" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B177" s="6" t="e"/>
-      <c r="C177" s="6" t="e"/>
-      <c r="D177" s="6" t="e"/>
-      <c r="E177" s="6" t="e"/>
-      <c r="F177" s="6" t="e"/>
-      <c r="G177" s="6" t="e"/>
-      <c r="H177" s="6" t="e"/>
-      <c r="I177" s="6" t="e"/>
-      <c r="J177" s="6" t="e"/>
-      <c r="K177" s="6" t="e"/>
-      <c r="L177" s="6" t="e"/>
-      <c r="M177" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="N177" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="O177" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P177" s="9" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="178" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A178" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B178" s="6" t="e"/>
-      <c r="C178" s="6" t="e"/>
-      <c r="D178" s="6" t="e"/>
-      <c r="E178" s="6" t="e"/>
-      <c r="F178" s="6" t="e"/>
-      <c r="G178" s="6" t="e"/>
-      <c r="H178" s="6" t="e"/>
-      <c r="I178" s="6" t="e"/>
-      <c r="J178" s="6" t="e"/>
-      <c r="K178" s="6" t="e"/>
-      <c r="L178" s="6" t="e"/>
-      <c r="M178" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="N178" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="O178" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P178" s="8" t="n">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="179" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A179" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B179" s="6" t="e"/>
-      <c r="C179" s="6" t="e"/>
-      <c r="D179" s="6" t="e"/>
-      <c r="E179" s="6" t="e"/>
-      <c r="F179" s="6" t="e"/>
-      <c r="G179" s="6" t="e"/>
-      <c r="H179" s="6" t="e"/>
-      <c r="I179" s="6" t="e"/>
-      <c r="J179" s="6" t="e"/>
-      <c r="K179" s="6" t="e"/>
-      <c r="L179" s="6" t="e"/>
-      <c r="M179" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="N179" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="O179" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P179" s="9" t="n">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="180" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A180" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B180" s="6" t="e"/>
-      <c r="C180" s="6" t="e"/>
-      <c r="D180" s="6" t="e"/>
-      <c r="E180" s="6" t="e"/>
-      <c r="F180" s="6" t="e"/>
-      <c r="G180" s="6" t="e"/>
-      <c r="H180" s="6" t="e"/>
-      <c r="I180" s="6" t="e"/>
-      <c r="J180" s="6" t="e"/>
-      <c r="K180" s="6" t="e"/>
-      <c r="L180" s="6" t="e"/>
-      <c r="M180" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="N180" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="O180" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P180" s="9" t="n">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="181" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A181" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="B181" s="6" t="e"/>
-      <c r="C181" s="6" t="e"/>
-      <c r="D181" s="6" t="e"/>
-      <c r="E181" s="6" t="e"/>
-      <c r="F181" s="6" t="e"/>
-      <c r="G181" s="6" t="e"/>
-      <c r="H181" s="6" t="e"/>
-      <c r="I181" s="6" t="e"/>
-      <c r="J181" s="6" t="e"/>
-      <c r="K181" s="6" t="e"/>
-      <c r="L181" s="6" t="e"/>
-      <c r="M181" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="N181" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="O181" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P181" s="9" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="182" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A182" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B182" s="6" t="e"/>
-      <c r="C182" s="6" t="e"/>
-      <c r="D182" s="6" t="e"/>
-      <c r="E182" s="6" t="e"/>
-      <c r="F182" s="6" t="e"/>
-      <c r="G182" s="6" t="e"/>
-      <c r="H182" s="6" t="e"/>
-      <c r="I182" s="6" t="e"/>
-      <c r="J182" s="6" t="e"/>
-      <c r="K182" s="6" t="e"/>
-      <c r="L182" s="6" t="e"/>
-      <c r="M182" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="N182" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="O182" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P182" s="9" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="183" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A183" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B183" s="6" t="e"/>
-      <c r="C183" s="6" t="e"/>
-      <c r="D183" s="6" t="e"/>
-      <c r="E183" s="6" t="e"/>
-      <c r="F183" s="6" t="e"/>
-      <c r="G183" s="6" t="e"/>
-      <c r="H183" s="6" t="e"/>
-      <c r="I183" s="6" t="e"/>
-      <c r="J183" s="6" t="e"/>
-      <c r="K183" s="6" t="e"/>
-      <c r="L183" s="6" t="e"/>
-      <c r="M183" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="N183" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="O183" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P183" s="9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" ht="22" customHeight="true" outlineLevel="1">
-      <c r="A184" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B184" s="6" t="e"/>
-      <c r="C184" s="6" t="e"/>
-      <c r="D184" s="6" t="e"/>
-      <c r="E184" s="6" t="e"/>
-      <c r="F184" s="6" t="e"/>
-      <c r="G184" s="6" t="e"/>
-      <c r="H184" s="6" t="e"/>
-      <c r="I184" s="6" t="e"/>
-      <c r="J184" s="6" t="e"/>
-      <c r="K184" s="6" t="e"/>
-      <c r="L184" s="6" t="e"/>
-      <c r="M184" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N184" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="O184" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P184" s="9" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="185" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A185" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B185" s="6" t="e"/>
-      <c r="C185" s="6" t="e"/>
-      <c r="D185" s="6" t="e"/>
-      <c r="E185" s="6" t="e"/>
-      <c r="F185" s="6" t="e"/>
-      <c r="G185" s="6" t="e"/>
-      <c r="H185" s="6" t="e"/>
-      <c r="I185" s="6" t="e"/>
-      <c r="J185" s="6" t="e"/>
-      <c r="K185" s="6" t="e"/>
-      <c r="L185" s="6" t="e"/>
-      <c r="M185" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="N185" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="O185" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P185" s="8" t="n">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="186" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A186" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B186" s="6" t="e"/>
-      <c r="C186" s="6" t="e"/>
-      <c r="D186" s="6" t="e"/>
-      <c r="E186" s="6" t="e"/>
-      <c r="F186" s="6" t="e"/>
-      <c r="G186" s="6" t="e"/>
-      <c r="H186" s="6" t="e"/>
-      <c r="I186" s="6" t="e"/>
-      <c r="J186" s="6" t="e"/>
-      <c r="K186" s="6" t="e"/>
-      <c r="L186" s="6" t="e"/>
-      <c r="M186" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="N186" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="O186" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P186" s="8" t="n">
         <v>2867</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="160">
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A9:O9"/>
     <mergeCell ref="A10:L10"/>
@@ -6264,12 +5616,12 @@
     <mergeCell ref="A79:L79"/>
     <mergeCell ref="A80:L80"/>
     <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A82:L82"/>
+    <mergeCell ref="A82:O82"/>
     <mergeCell ref="A83:L83"/>
     <mergeCell ref="A84:L84"/>
     <mergeCell ref="A85:L85"/>
     <mergeCell ref="A86:L86"/>
-    <mergeCell ref="A87:O87"/>
+    <mergeCell ref="A87:L87"/>
     <mergeCell ref="A88:L88"/>
     <mergeCell ref="A89:L89"/>
     <mergeCell ref="A90:L90"/>
@@ -6293,7 +5645,7 @@
     <mergeCell ref="A108:L108"/>
     <mergeCell ref="A109:L109"/>
     <mergeCell ref="A110:L110"/>
-    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="A111:O111"/>
     <mergeCell ref="A112:L112"/>
     <mergeCell ref="A113:L113"/>
     <mergeCell ref="A114:L114"/>
@@ -6302,7 +5654,7 @@
     <mergeCell ref="A117:L117"/>
     <mergeCell ref="A118:L118"/>
     <mergeCell ref="A119:L119"/>
-    <mergeCell ref="A120:L120"/>
+    <mergeCell ref="A120:O120"/>
     <mergeCell ref="A121:L121"/>
     <mergeCell ref="A122:L122"/>
     <mergeCell ref="A123:L123"/>
@@ -6311,20 +5663,20 @@
     <mergeCell ref="A126:L126"/>
     <mergeCell ref="A127:L127"/>
     <mergeCell ref="A128:L128"/>
-    <mergeCell ref="A129:L129"/>
+    <mergeCell ref="A129:O129"/>
     <mergeCell ref="A130:L130"/>
-    <mergeCell ref="A131:O131"/>
+    <mergeCell ref="A131:L131"/>
     <mergeCell ref="A132:L132"/>
-    <mergeCell ref="A133:L133"/>
+    <mergeCell ref="A133:O133"/>
     <mergeCell ref="A134:L134"/>
     <mergeCell ref="A135:L135"/>
     <mergeCell ref="A136:L136"/>
     <mergeCell ref="A137:L137"/>
     <mergeCell ref="A138:L138"/>
     <mergeCell ref="A139:L139"/>
-    <mergeCell ref="A140:L140"/>
-    <mergeCell ref="A141:O141"/>
-    <mergeCell ref="A142:L142"/>
+    <mergeCell ref="A140:O140"/>
+    <mergeCell ref="A141:L141"/>
+    <mergeCell ref="A142:O142"/>
     <mergeCell ref="A143:L143"/>
     <mergeCell ref="A144:L144"/>
     <mergeCell ref="A145:L145"/>
@@ -6332,43 +5684,24 @@
     <mergeCell ref="A147:L147"/>
     <mergeCell ref="A148:L148"/>
     <mergeCell ref="A149:L149"/>
-    <mergeCell ref="A150:O150"/>
+    <mergeCell ref="A150:L150"/>
     <mergeCell ref="A151:L151"/>
     <mergeCell ref="A152:L152"/>
     <mergeCell ref="A153:L153"/>
-    <mergeCell ref="A154:O154"/>
-    <mergeCell ref="A155:L155"/>
+    <mergeCell ref="A154:L154"/>
+    <mergeCell ref="A155:O155"/>
     <mergeCell ref="A156:L156"/>
-    <mergeCell ref="A157:L157"/>
+    <mergeCell ref="A157:O157"/>
     <mergeCell ref="A158:L158"/>
     <mergeCell ref="A159:L159"/>
     <mergeCell ref="A160:L160"/>
-    <mergeCell ref="A161:O161"/>
+    <mergeCell ref="A161:L161"/>
     <mergeCell ref="A162:L162"/>
-    <mergeCell ref="A163:O163"/>
+    <mergeCell ref="A163:L163"/>
     <mergeCell ref="A164:L164"/>
     <mergeCell ref="A165:L165"/>
     <mergeCell ref="A166:L166"/>
     <mergeCell ref="A167:L167"/>
-    <mergeCell ref="A168:L168"/>
-    <mergeCell ref="A169:L169"/>
-    <mergeCell ref="A170:L170"/>
-    <mergeCell ref="A171:L171"/>
-    <mergeCell ref="A172:L172"/>
-    <mergeCell ref="A173:O173"/>
-    <mergeCell ref="A174:L174"/>
-    <mergeCell ref="A175:O175"/>
-    <mergeCell ref="A176:L176"/>
-    <mergeCell ref="A177:L177"/>
-    <mergeCell ref="A178:L178"/>
-    <mergeCell ref="A179:L179"/>
-    <mergeCell ref="A180:L180"/>
-    <mergeCell ref="A181:L181"/>
-    <mergeCell ref="A182:L182"/>
-    <mergeCell ref="A183:L183"/>
-    <mergeCell ref="A184:L184"/>
-    <mergeCell ref="A185:L185"/>
-    <mergeCell ref="A186:L186"/>
   </mergeCells>
   <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait"/>
